--- a/doc/Matrix-SSM相关流程图.xlsx
+++ b/doc/Matrix-SSM相关流程图.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWork\learnspace\my-github\matrix-ssm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9A8B70-E1B7-4001-AAF8-51CC2C919DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350D574-D074-43D5-92CF-6609B60BEB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shiro认证流程" sheetId="2" r:id="rId1"/>
-    <sheet name="Shiro授权流程" sheetId="3" r:id="rId2"/>
-    <sheet name="Shiro验证码验证流程" sheetId="1" r:id="rId3"/>
+    <sheet name="Shiro验证码验证流程" sheetId="1" r:id="rId1"/>
+    <sheet name="Shiro认证流程" sheetId="2" r:id="rId2"/>
+    <sheet name="Shiro授权流程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2605,6 +2605,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44EEDED-3228-4760-85CE-C4D532086F8A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2619,7 +2636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFD123D-FDAB-4F21-8BCA-EE3627A19351}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2632,21 +2649,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/doc/Matrix-SSM相关流程图.xlsx
+++ b/doc/Matrix-SSM相关流程图.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWork\learnspace\my-github\matrix-ssm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350D574-D074-43D5-92CF-6609B60BEB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C9E91C-8DEA-4C61-BF02-E574C37D38B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shiro验证码验证流程" sheetId="1" r:id="rId1"/>
     <sheet name="Shiro认证流程" sheetId="2" r:id="rId2"/>
     <sheet name="Shiro授权流程" sheetId="3" r:id="rId3"/>
+    <sheet name="异步处理" sheetId="4" r:id="rId4"/>
+    <sheet name="Spring发现载入Bean-注册Bean-装配Bean流程" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +28,66 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>启用组件扫描的2种方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、XML配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、Java配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;context:component-scan/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件扫描命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认是将类名的第一个字母变成小写作为组件的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以通过@Component注解指定ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Autowired注解详解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动装配的歧义性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML配置及Java配置类配置区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以简单这么理解：@Configuration注解相当于一个xml配置文件，相当于一个&lt;beans&gt;，@Bean注解相当于&lt;bean/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML配置中，&lt;bean/&gt;调用的是申明对象的默认/指定构造器来创建Bean的，而Java配置类中，@Bean标注的方法可以自定义写对象生成的逻辑，更加灵活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ComponentScan（结合@Configuration一起使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +100,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -61,14 +128,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2322,6 +2393,2458 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8762FE9E-2AAF-43FE-8B89-AE15B521CEA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="1619250"/>
+          <a:ext cx="2095500" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AsyncManger</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取线程池，执行异步任务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D693E9E4-E7B1-426D-BE24-E3BF47C8C2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="3438525"/>
+          <a:ext cx="2095500" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AsyncFactory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>异步工厂，产生异步任务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D197EE21-00D2-4A9E-97EB-71C1DB4CE2D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3067050" y="2533650"/>
+          <a:ext cx="38100" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C50A3A03-1FBB-47FF-8880-11FB438DFDED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="1628774"/>
+          <a:ext cx="2095500" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ThreadPoolConfig</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>生成线程池</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ThreadPoolTaskExecutor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ScheduledExecutorService</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCDF2ED-7F66-4917-B3D0-3FA1AD790D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4838700" y="2076450"/>
+          <a:ext cx="1981200" cy="100012"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD1E7C2-1757-4D28-9B3B-9686BA604E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800599" y="180975"/>
+          <a:ext cx="3248025" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>SpringUtils</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>工具类 方便在非</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管理环境中获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bean</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>多线程下获取线程池：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SpringUtils.getBean("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>scheduledExecutorService</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>")</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6578C85-4EAE-4051-AF9D-93C44E039278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5857875" y="1228725"/>
+          <a:ext cx="566737" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8E4FE4-9F8B-404E-A2A4-CDB633CB80C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="5800724"/>
+          <a:ext cx="2095500" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>xxxService</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>异步任务的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Dao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>实现</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>IUserOnlineService</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>IOperLogService</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>LogininforServiceImpl</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD3B0C3-2187-4C50-A9E4-86C2163B4352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7905750" y="4714875"/>
+          <a:ext cx="0" cy="1085849"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4597BE9A-8B56-4C21-8BD4-18C5FC43269B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="470647" y="302559"/>
+          <a:ext cx="3227294" cy="5771029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>申明</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A34E26F-AD93-46C2-9DF0-D9B650CF9AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="2524125"/>
+          <a:ext cx="2733675" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发现载入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4109C7FB-1355-4A34-A67E-65B3805D827B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="2533650"/>
+          <a:ext cx="2733675" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注册</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BF1861-263C-4CEC-981F-9E66F9F66862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="2533650"/>
+          <a:ext cx="2733675" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>装配</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDC4FC9-89A6-44F7-86FB-6A17A4631315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="3067050"/>
+          <a:ext cx="2066925" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF02270F-CA09-43AB-8AB0-F7F8DE316D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="3076575"/>
+          <a:ext cx="2009775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>75083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形: 圆角 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F427CCBE-D9C2-4EA9-B1CE-59903A4FA06B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886265" y="4341722"/>
+          <a:ext cx="2734235" cy="753596"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的生命周期</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63873</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>37539</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形: 圆角 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87EDB024-13B6-4F51-B866-CA74F228528F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63873" y="728382"/>
+          <a:ext cx="2707901" cy="1061197"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>XML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示配置</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;beans/&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为根目录</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;bean/&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为需要注册的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>bean</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52668</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26334</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形: 圆角 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195EFC8C-6DAC-4EEF-B2A5-0D502D4E489D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52668" y="2229968"/>
+          <a:ext cx="2707901" cy="1624855"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>配置类显示配置</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Configuration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>标注一个类为配置类。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配置类的方法上标注</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>注解，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>注解会告诉</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这个方法会返回一个对象，改对象要注册为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>应用上下文的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。该方法中包含了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>产生的逻辑。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形: 圆角 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29D576B-821A-4828-A155-5C0C0F6559E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="4325465"/>
+          <a:ext cx="2707901" cy="1512794"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>组件扫描</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>启用组件扫描。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>组件扫描启用后会扫描类上标注了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>@Component</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注解的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Component</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>注解表明该类会作为组件类，并告知</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>要为这个类创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC537549-E9EF-49F3-970C-A95176860070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3664324" y="3040156"/>
+          <a:ext cx="1120588" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52025C17-519D-4415-A0A9-8D8F592F13A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9771529" y="3597088"/>
+          <a:ext cx="0" cy="717177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5737FE9F-7FA3-4DDA-ADED-F3DE5E59E144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10656794" y="3552265"/>
+          <a:ext cx="0" cy="784411"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>679636</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形: 圆角 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB29DB7-2685-4356-B397-23E51C59F60A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17111383" y="4471153"/>
+          <a:ext cx="2707900" cy="1266264"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自动装配</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>@Autowired</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注解</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>属性注入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>构造器注入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>方法注入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>668430</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形: 圆角 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB0862F-4DD2-41C9-A946-D2600B6501E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17100176" y="2633380"/>
+          <a:ext cx="2707901" cy="840442"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>配置类装配</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>@Bean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注解标注的方法，会有和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>@Autowired</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>标注在方法上一样的效果。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形: 圆角 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE16570C-7555-4092-9E79-0938A547463C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17088971" y="862854"/>
+          <a:ext cx="2707900" cy="1277470"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>XML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>装配</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、构造器注入初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>bean</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;constructor-arg&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、属性装配</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;property&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459006E3-B96B-4424-ABCC-7FC0B1E36840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16405412" y="2151529"/>
+          <a:ext cx="0" cy="2364442"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5601</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7704D6-891E-4231-ADB7-2C469E364C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15714569" y="3048000"/>
+          <a:ext cx="1385607" cy="5601"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0275F737-54C0-49BB-A578-131679A696B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16405412" y="1501589"/>
+          <a:ext cx="683559" cy="672352"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>84050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FF38D0-E908-492D-AA57-786C0FCDAE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16416618" y="4493559"/>
+          <a:ext cx="694765" cy="610726"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2608,7 +5131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
@@ -2649,4 +5172,105 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7028F08-870E-4A42-8E7E-D67CD967C9C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25953982-72C9-4408-AEFC-ACE7EE8766BB}">
+  <dimension ref="B37:Z50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C46" r:id="rId1" xr:uid="{876772CD-625B-47F8-BAAC-867B6F6DFA3A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>